--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeMonthly201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeMonthly201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="204" windowWidth="14340" windowHeight="4332" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="67">
   <si>
     <t>TC</t>
   </si>
@@ -202,9 +207,6 @@
     <t>DO NOT TOUCH - TAX PAYROLL AUTOMATION</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll Tax Test Report 201718\\201718 Payroll Net Income tax calculation Test result.xlsx</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -218,14 +220,16 @@
   </si>
   <si>
     <t>Monthly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll Net Income tax calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +344,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -387,7 +394,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,9 +427,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,6 +479,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -637,15 +678,15 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.26083984375" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,7 +700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -673,7 +714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -687,7 +728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -701,9 +742,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>18</v>
@@ -729,18 +770,18 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -766,7 +807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -786,7 +827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -806,7 +847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -826,7 +867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -846,7 +887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -866,7 +907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -886,7 +927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -906,7 +947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -926,7 +967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -946,7 +987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
@@ -966,7 +1007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -986,7 +1027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -1006,7 +1047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -1026,7 +1067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
@@ -1046,7 +1087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
@@ -1066,7 +1107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
@@ -1086,7 +1127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>36</v>
       </c>
@@ -1116,24 +1157,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C18"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="39.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="113.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="1" max="1" width="52.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="39.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="113.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1174,21 +1215,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="14" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="14" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>58</v>
@@ -1197,7 +1238,7 @@
         <v>60</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>59</v>
@@ -1209,21 +1250,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="16" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="16" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>58</v>
@@ -1232,7 +1273,7 @@
         <v>60</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>59</v>
@@ -1244,21 +1285,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="16" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="16" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>58</v>
@@ -1267,7 +1308,7 @@
         <v>60</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>59</v>
@@ -1279,21 +1320,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="16" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="16" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>58</v>
@@ -1302,7 +1343,7 @@
         <v>60</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>59</v>
@@ -1314,21 +1355,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="16" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="16" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>58</v>
@@ -1337,7 +1378,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>59</v>
@@ -1349,21 +1390,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="16" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="16" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>58</v>
@@ -1372,7 +1413,7 @@
         <v>60</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>59</v>
@@ -1384,21 +1425,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="16" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="16" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>58</v>
@@ -1407,7 +1448,7 @@
         <v>60</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>59</v>
@@ -1419,21 +1460,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="16" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="16" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>58</v>
@@ -1442,7 +1483,7 @@
         <v>60</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>59</v>
@@ -1454,21 +1495,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="16" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="16" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>58</v>
@@ -1477,7 +1518,7 @@
         <v>60</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>59</v>
@@ -1489,21 +1530,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="16" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="16" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>58</v>
@@ -1512,7 +1553,7 @@
         <v>60</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>59</v>
@@ -1524,21 +1565,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="16" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="16" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>58</v>
@@ -1547,7 +1588,7 @@
         <v>60</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>59</v>
@@ -1559,21 +1600,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="16" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="16" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>58</v>
@@ -1582,7 +1623,7 @@
         <v>60</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>59</v>
@@ -1594,21 +1635,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="16" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="16" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>58</v>
@@ -1617,7 +1658,7 @@
         <v>60</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>59</v>
@@ -1629,21 +1670,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="16" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="16" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>58</v>
@@ -1652,7 +1693,7 @@
         <v>60</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>59</v>
@@ -1664,21 +1705,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="16" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="16" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>58</v>
@@ -1687,7 +1728,7 @@
         <v>60</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>59</v>
@@ -1699,21 +1740,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="16" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="16" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>58</v>
@@ -1722,7 +1763,7 @@
         <v>60</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>59</v>
@@ -1734,21 +1775,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="16" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="16" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>58</v>
@@ -1757,7 +1798,7 @@
         <v>60</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>59</v>
@@ -1771,8 +1812,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId7" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="A3:A18" r:id="rId8" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A3:A18" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1782,23 +1823,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="38.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="60.33203125" collapsed="true"/>
+    <col min="1" max="1" width="51.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="60.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1839,21 +1880,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>58</v>
@@ -1862,10 +1903,10 @@
         <v>60</v>
       </c>
       <c r="H2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>57</v>
@@ -1876,7 +1917,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId5" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeMonthly201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeMonthly201718.xlsx
@@ -12,7 +12,7 @@
     <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId3"/>
     <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -642,7 +642,7 @@
     <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,7 +786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>50</v>
       </c>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeMonthly201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeMonthly201718.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="216" windowWidth="14340" windowHeight="4332" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="4332" windowWidth="14340" xWindow="396" yWindow="216"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateMonthly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForMonthlyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="67">
   <si>
     <t>TC</t>
   </si>
@@ -224,6 +224,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -283,56 +284,56 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -349,10 +350,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -510,7 +511,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -519,13 +520,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -535,7 +536,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -544,7 +545,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -553,7 +554,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -563,12 +564,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -599,7 +600,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -618,7 +619,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -630,7 +631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -639,13 +640,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,7 +660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="35.4" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -673,7 +674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -687,7 +688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -701,7 +702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -716,13 +717,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
@@ -731,16 +732,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -766,7 +767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>49</v>
       </c>
@@ -1108,31 +1109,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A8" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A10" r:id="rId6" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A12" r:id="rId7" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A14" r:id="rId8" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A16" r:id="rId9" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A18" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A5" r:id="rId11" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A7" r:id="rId12" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A9" r:id="rId13" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A11" r:id="rId14" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A13" r:id="rId15" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A15" r:id="rId16" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A17" r:id="rId17" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId2" ref="A3"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId3" ref="A4"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId4" ref="A6"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId5" ref="A8"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId6" ref="A10"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId7" ref="A12"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId8" ref="A14"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId9" ref="A16"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId10" ref="A18"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId11" ref="A5"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId12" ref="A7"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId13" ref="A9"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId14" ref="A11"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId15" ref="A13"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId16" ref="A15"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId17" ref="A17"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId18" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1141,18 +1142,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="113.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="113.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1193,7 +1194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="2" s="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>48</v>
       </c>
@@ -1228,7 +1229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="3" s="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>48</v>
       </c>
@@ -1263,7 +1264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="4" s="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>48</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="5" s="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>48</v>
       </c>
@@ -1333,7 +1334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="6" s="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>48</v>
       </c>
@@ -1368,7 +1369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="7" s="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>48</v>
       </c>
@@ -1403,7 +1404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="8" s="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>48</v>
       </c>
@@ -1438,7 +1439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="9" s="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>48</v>
       </c>
@@ -1473,7 +1474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="10" s="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>48</v>
       </c>
@@ -1508,7 +1509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="11" s="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>48</v>
       </c>
@@ -1543,7 +1544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="12" s="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>48</v>
       </c>
@@ -1578,7 +1579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="13" s="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>48</v>
       </c>
@@ -1613,7 +1614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="14" s="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>48</v>
       </c>
@@ -1648,7 +1649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="15" s="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -1683,7 +1684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="16" s="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>48</v>
       </c>
@@ -1718,7 +1719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="17" s="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>48</v>
       </c>
@@ -1753,7 +1754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="18" s="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>48</v>
       </c>
@@ -1790,31 +1791,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A18" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B3" r:id="rId3" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B4" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B6" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B8" r:id="rId6" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B10" r:id="rId7" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B12" r:id="rId8" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B14" r:id="rId9" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B16" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B18" r:id="rId11" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B5" r:id="rId12" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B7" r:id="rId13" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B9" r:id="rId14" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B11" r:id="rId15" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B13" r:id="rId16" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B15" r:id="rId17" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B17" r:id="rId18" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A18"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId2" ref="B2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId3" ref="B3"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId4" ref="B4"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId5" ref="B6"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId6" ref="B8"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId7" ref="B10"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId8" ref="B12"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId9" ref="B14"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId10" ref="B16"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId11" ref="B18"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId12" ref="B5"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId13" ref="B7"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId14" ref="B9"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId15" ref="B11"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId16" ref="B13"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId17" ref="B15"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId18" ref="B17"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1823,17 +1824,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="60.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="60.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1874,7 +1875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="33.6" r="2" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>48</v>
       </c>
@@ -1911,10 +1912,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId2" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeMonthly201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeMonthly201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="67">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeMonthly201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeMonthly201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="67">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeMonthly201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeMonthly201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="67">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeMonthly201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeMonthly201718.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="4332" windowWidth="14340" xWindow="396" yWindow="216"/>
+    <workbookView xWindow="396" yWindow="216" windowWidth="14340" windowHeight="4332" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="GeneralTaxRateMonthly" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForMonthlyTax" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="ResetData" sheetId="6" r:id="rId2"/>
+    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId3"/>
+    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId4"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="69">
   <si>
     <t>TC</t>
   </si>
@@ -106,12 +107,6 @@
     <t>cumulative</t>
   </si>
   <si>
-    <t>ExecuteQuery</t>
-  </si>
-  <si>
-    <t>This script executes the query to accumulated ytd in payroll</t>
-  </si>
-  <si>
     <t>EmployerName</t>
   </si>
   <si>
@@ -218,13 +213,24 @@
   </si>
   <si>
     <t>GLTM_Payroll</t>
+  </si>
+  <si>
+    <t>TaxYear</t>
+  </si>
+  <si>
+    <t>ResetData</t>
+  </si>
+  <si>
+    <t>This script deletes the draft payrun records and regenerates new one's</t>
+  </si>
+  <si>
+    <t>2017/2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -284,56 +290,56 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -350,10 +356,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -511,7 +517,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -520,13 +526,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -536,7 +542,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -545,7 +551,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -554,7 +560,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -564,12 +570,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -600,7 +606,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -619,7 +625,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -631,22 +637,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,12 +666,12 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="35.4" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -674,7 +680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -688,7 +694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -702,9 +708,9 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -717,31 +723,101 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -767,9 +843,9 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>14</v>
@@ -789,7 +865,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>14</v>
@@ -809,7 +885,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
@@ -829,7 +905,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -849,7 +925,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>14</v>
@@ -869,7 +945,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
@@ -889,7 +965,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>14</v>
@@ -909,7 +985,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>14</v>
@@ -929,7 +1005,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -949,7 +1025,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>20</v>
@@ -969,7 +1045,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>21</v>
@@ -989,7 +1065,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>22</v>
@@ -1009,7 +1085,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>23</v>
@@ -1029,7 +1105,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>24</v>
@@ -1049,7 +1125,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>25</v>
@@ -1069,7 +1145,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>26</v>
@@ -1089,7 +1165,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>27</v>
@@ -1109,80 +1185,80 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId1" ref="A2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId2" ref="A3"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId3" ref="A4"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId4" ref="A6"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId5" ref="A8"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId6" ref="A10"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId7" ref="A12"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId8" ref="A14"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId9" ref="A16"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId10" ref="A18"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId11" ref="A5"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId12" ref="A7"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId13" ref="A9"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId14" ref="A11"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId15" ref="A13"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId16" ref="A15"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId17" ref="A17"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="A8" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="A10" r:id="rId6" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="A12" r:id="rId7" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="A14" r:id="rId8" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="A16" r:id="rId9" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="A18" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="A5" r:id="rId11" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="A7" r:id="rId12" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="A9" r:id="rId13" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="A11" r:id="rId14" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="A13" r:id="rId15" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="A15" r:id="rId16" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="A17" r:id="rId17" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId18" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="39.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="113.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="1" max="1" width="52.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="39.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="113.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -1194,596 +1270,596 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="31.95" r="2" s="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="B5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="H5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="31.95" r="3" s="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="J5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="B6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="10" t="s">
+      <c r="H6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="31.95" r="4" s="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="J6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="B7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="10" t="s">
+      <c r="H7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="31.95" r="5" s="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="J7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="B8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="10" t="s">
+      <c r="H8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="31.95" r="6" s="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="J8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="B9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="10" t="s">
+      <c r="H9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="31.95" r="7" s="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="J9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="B10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="10" t="s">
+      <c r="H10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="31.95" r="8" s="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="J10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="B11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="10" t="s">
+      <c r="H11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="31.95" r="9" s="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="J11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="B12" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="10" t="s">
+      <c r="H12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="31.95" r="10" s="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="J12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="B13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="10" t="s">
+      <c r="H13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="31.95" r="11" s="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="J13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="B14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="10" t="s">
+      <c r="H14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="31.95" r="12" s="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="J14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="B15" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="10" t="s">
+      <c r="H15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="31.95" r="13" s="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="J15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="B16" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="10" t="s">
+      <c r="H16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="31.95" r="14" s="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="J16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="B17" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="10" t="s">
+      <c r="H17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="31.95" r="15" s="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="J17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="B18" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="10" t="s">
+      <c r="H18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K15" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="31.95" r="16" s="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="31.95" r="17" s="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="31.95" r="18" s="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="J18" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K18" s="11" t="s">
         <v>4</v>
@@ -1791,79 +1867,79 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A18"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId2" ref="B2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId3" ref="B3"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId4" ref="B4"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId5" ref="B6"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId6" ref="B8"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId7" ref="B10"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId8" ref="B12"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId9" ref="B14"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId10" ref="B16"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId11" ref="B18"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId12" ref="B5"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId13" ref="B7"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId14" ref="B9"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId15" ref="B11"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId16" ref="B13"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId17" ref="B15"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId18" ref="B17"/>
+    <hyperlink ref="A2:A18" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="B10" r:id="rId7" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="B12" r:id="rId8" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="B14" r:id="rId9" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="B16" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="B18" r:id="rId11" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="B5" r:id="rId12" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="B7" r:id="rId13" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="B9" r:id="rId14" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="B11" r:id="rId15" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="B13" r:id="rId16" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="B15" r:id="rId17" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="B17" r:id="rId18" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="38.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="60.33203125" collapsed="true"/>
+    <col min="1" max="1" width="51.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="60.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -1875,36 +1951,36 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33.6" r="2" s="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>4</v>
@@ -1912,10 +1988,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId2" ref="B2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeMonthly201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeMonthly201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="67">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeMonthly201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeMonthly201718.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="216" windowWidth="14340" windowHeight="4332" activeTab="4"/>
+    <workbookView activeTab="4" windowHeight="4332" windowWidth="14340" xWindow="396" yWindow="216"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetData" sheetId="6" r:id="rId2"/>
-    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId3"/>
-    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId4"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId5"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetData" r:id="rId2" sheetId="6"/>
+    <sheet name="GeneralTaxRateMonthly" r:id="rId3" sheetId="2"/>
+    <sheet name="ProcessPayrollForMonthlyTax" r:id="rId4" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId5" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="69">
   <si>
     <t>TC</t>
   </si>
@@ -231,6 +231,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -290,56 +291,56 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -356,10 +357,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -517,7 +518,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -526,13 +527,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -542,7 +543,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -551,7 +552,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -560,7 +561,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -570,12 +571,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -606,7 +607,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -625,7 +626,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -637,7 +638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -646,13 +647,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="35.4" r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -680,7 +681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -694,7 +695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -708,7 +709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -723,13 +724,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -738,12 +739,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="35.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -766,7 +767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>46</v>
       </c>
@@ -780,26 +781,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row customFormat="1" r="3" s="11" spans="1:6" x14ac:dyDescent="0.3"/>
+    <row customFormat="1" r="4" s="11" spans="1:6" x14ac:dyDescent="0.3"/>
+    <row customFormat="1" r="5" s="11" spans="1:6" x14ac:dyDescent="0.3"/>
+    <row customFormat="1" r="6" s="11" spans="1:6" x14ac:dyDescent="0.3"/>
+    <row customFormat="1" r="7" s="11" spans="1:6" x14ac:dyDescent="0.3"/>
+    <row customFormat="1" r="8" s="11" spans="1:6" x14ac:dyDescent="0.3"/>
+    <row customFormat="1" r="9" s="11" spans="1:6" x14ac:dyDescent="0.3"/>
+    <row customFormat="1" r="10" s="11" spans="1:6" x14ac:dyDescent="0.3"/>
+    <row customFormat="1" r="11" s="11" spans="1:6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -808,16 +809,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -843,7 +844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>47</v>
       </c>
@@ -1185,31 +1186,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A8" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A10" r:id="rId6" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A12" r:id="rId7" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A14" r:id="rId8" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A16" r:id="rId9" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A18" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A5" r:id="rId11" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A7" r:id="rId12" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A9" r:id="rId13" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A11" r:id="rId14" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A13" r:id="rId15" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A15" r:id="rId16" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A17" r:id="rId17" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId2" ref="A3"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId3" ref="A4"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId4" ref="A6"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId5" ref="A8"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId6" ref="A10"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId7" ref="A12"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId8" ref="A14"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId9" ref="A16"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId10" ref="A18"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId11" ref="A5"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId12" ref="A7"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId13" ref="A9"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId14" ref="A11"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId15" ref="A13"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId16" ref="A15"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId17" ref="A17"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId18" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1218,18 +1219,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="113.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="113.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -1270,7 +1271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="2" s="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>46</v>
       </c>
@@ -1305,7 +1306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="3" s="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>46</v>
       </c>
@@ -1340,7 +1341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="4" s="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>46</v>
       </c>
@@ -1375,7 +1376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="5" s="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>46</v>
       </c>
@@ -1410,7 +1411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="6" s="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>46</v>
       </c>
@@ -1445,7 +1446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="7" s="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>46</v>
       </c>
@@ -1480,7 +1481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="8" s="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>46</v>
       </c>
@@ -1515,7 +1516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="9" s="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>46</v>
       </c>
@@ -1550,7 +1551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="10" s="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>46</v>
       </c>
@@ -1585,7 +1586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="11" s="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>46</v>
       </c>
@@ -1620,7 +1621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="12" s="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>46</v>
       </c>
@@ -1655,7 +1656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="13" s="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>46</v>
       </c>
@@ -1690,7 +1691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="14" s="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>46</v>
       </c>
@@ -1725,7 +1726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="15" s="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>46</v>
       </c>
@@ -1760,7 +1761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="16" s="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>46</v>
       </c>
@@ -1795,7 +1796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="17" s="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>46</v>
       </c>
@@ -1830,7 +1831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.95" r="18" s="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>46</v>
       </c>
@@ -1867,31 +1868,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A18" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B3" r:id="rId3" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B4" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B6" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B8" r:id="rId6" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B10" r:id="rId7" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B12" r:id="rId8" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B14" r:id="rId9" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B16" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B18" r:id="rId11" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B5" r:id="rId12" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B7" r:id="rId13" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B9" r:id="rId14" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B11" r:id="rId15" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B13" r:id="rId16" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B15" r:id="rId17" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B17" r:id="rId18" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A18"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId2" ref="B2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId3" ref="B3"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId4" ref="B4"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId5" ref="B6"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId6" ref="B8"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId7" ref="B10"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId8" ref="B12"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId9" ref="B14"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId10" ref="B16"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId11" ref="B18"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId12" ref="B5"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId13" ref="B7"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId14" ref="B9"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId15" ref="B11"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId16" ref="B13"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId17" ref="B15"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId18" ref="B17"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1900,17 +1901,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="60.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="60.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -1951,7 +1952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="33.6" r="2" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>46</v>
       </c>
@@ -1988,10 +1989,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId2" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeMonthly201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeMonthly201718.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="216" windowWidth="14340" windowHeight="4332" activeTab="4"/>
+    <workbookView xWindow="396" yWindow="216" windowWidth="14340" windowHeight="4332" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetData" sheetId="6" r:id="rId2"/>
-    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId3"/>
-    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId4"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId5"/>
+    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="84">
   <si>
     <t>TC</t>
   </si>
@@ -47,6 +46,33 @@
     <t>Error</t>
   </si>
   <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 101</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 102</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 103</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 104</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 105</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 106</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 107</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 108</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 109</t>
+  </si>
+  <si>
     <t>compares the report with hmrc data</t>
   </si>
   <si>
@@ -80,6 +106,30 @@
     <t>ProcessPayrollForMonthlyTax</t>
   </si>
   <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 110</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 111</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 112</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 113</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 114</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 115</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 116</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 117</t>
+  </si>
+  <si>
     <t>501L</t>
   </si>
   <si>
@@ -107,6 +157,12 @@
     <t>cumulative</t>
   </si>
   <si>
+    <t>ExecuteQuery</t>
+  </si>
+  <si>
+    <t>This script executes the query to accumulated ytd in payroll</t>
+  </si>
+  <si>
     <t>EmployerName</t>
   </si>
   <si>
@@ -213,18 +269,6 @@
   </si>
   <si>
     <t>GLTM_Payroll</t>
-  </si>
-  <si>
-    <t>TaxYear</t>
-  </si>
-  <si>
-    <t>ResetData</t>
-  </si>
-  <si>
-    <t>This script deletes the draft payrun records and regenerates new one's</t>
-  </si>
-  <si>
-    <t>2017/2018</t>
   </si>
 </sst>
 </file>
@@ -294,7 +338,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -303,6 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -641,7 +686,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,7 +694,7 @@
     <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -666,12 +711,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -682,10 +727,10 @@
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -696,10 +741,10 @@
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -710,10 +755,10 @@
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -730,80 +775,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,16 +797,16 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -844,376 +819,357 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D2">
         <v>470.88</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D3">
         <v>471</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D4">
         <v>33962.879999999997</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D5">
         <v>33963</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D6">
         <v>33963.120000000003</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D7">
         <v>150458.88</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D8">
         <v>150459</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="s">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D9">
         <v>150459.12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D10">
         <v>150471</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>28</v>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="D11">
         <v>24000</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>28</v>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="D12">
         <v>25200</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>28</v>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="D13">
         <v>27000</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>28</v>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="D14">
         <v>27000</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>28</v>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="D15">
         <v>31344</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>28</v>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="D16">
         <v>33000</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>28</v>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="D17">
         <v>39999.96</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>28</v>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="D18">
         <v>39999.96</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A8" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A10" r:id="rId6" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A12" r:id="rId7" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A14" r:id="rId8" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A16" r:id="rId9" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A18" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A5" r:id="rId11" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A7" r:id="rId12" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A9" r:id="rId13" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A11" r:id="rId14" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A13" r:id="rId15" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A15" r:id="rId16" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A17" r:id="rId17" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1231,34 +1187,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -1270,598 +1226,598 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>47</v>
+    <row r="2" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>48</v>
+      <c r="I2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>49</v>
+      <c r="I3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>50</v>
+      <c r="I4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>51</v>
+      <c r="I5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>52</v>
+      <c r="I6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>53</v>
+      <c r="I7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>54</v>
+      <c r="I8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>55</v>
+      <c r="I9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>56</v>
+      <c r="I10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="14" t="s">
+      <c r="I11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>57</v>
       </c>
+      <c r="K11" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>76</v>
+      </c>
       <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="I12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s">
+      <c r="G13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="14" t="s">
+      <c r="I13" s="11" t="s">
         <v>59</v>
       </c>
+      <c r="J13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="14" t="s">
+      <c r="I14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C15" t="s">
+      <c r="H15" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>61</v>
+      <c r="I15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>62</v>
+      <c r="I16" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="14" t="s">
+      <c r="I17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="11" t="s">
+      <c r="I18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1890,12 +1846,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1912,34 +1868,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -1951,38 +1907,38 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>47</v>
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="I2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeMonthly201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeMonthly201718.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="216" windowWidth="14340" windowHeight="4332" activeTab="3"/>
+    <workbookView xWindow="396" yWindow="216" windowWidth="14340" windowHeight="4332" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -1168,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1850,7 +1850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeMonthly201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeMonthly201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="396" yWindow="216" windowWidth="14340" windowHeight="4332" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -274,7 +279,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -439,7 +444,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -472,9 +477,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -507,6 +529,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,15 +728,15 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,7 +750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -739,7 +778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -753,7 +792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -777,22 +816,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,7 +877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -858,7 +897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -878,7 +917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -898,7 +937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -918,7 +957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -938,7 +977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -958,7 +997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -978,7 +1017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -998,7 +1037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
@@ -1018,7 +1057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -1038,7 +1077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -1058,7 +1097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -1078,7 +1117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
@@ -1098,7 +1137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
@@ -1118,7 +1157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
@@ -1138,7 +1177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>36</v>
       </c>
@@ -1168,24 +1207,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="113.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="52.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="39.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="113.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1226,7 +1265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="12" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="12" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>65</v>
       </c>
@@ -1261,7 +1300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -1296,7 +1335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -1331,7 +1370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -1366,7 +1405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -1401,7 +1440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -1436,7 +1475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -1471,7 +1510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -1506,7 +1545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -1541,7 +1580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
@@ -1576,7 +1615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>65</v>
       </c>
@@ -1611,7 +1650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>65</v>
       </c>
@@ -1646,7 +1685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>65</v>
       </c>
@@ -1681,7 +1720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>65</v>
       </c>
@@ -1716,7 +1755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>65</v>
       </c>
@@ -1751,7 +1790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>65</v>
       </c>
@@ -1786,7 +1825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="13" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>65</v>
       </c>
@@ -1854,19 +1893,19 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="60.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="60.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1907,7 +1946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>65</v>
       </c>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeMonthly201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeMonthly201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="1"/>
+    <workbookView activeTab="3" windowHeight="4335" windowWidth="14340" xWindow="390" yWindow="210"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateMonthly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForMonthlyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="86">
   <si>
     <t>TC</t>
   </si>
@@ -274,12 +274,19 @@
   </si>
   <si>
     <t>GLTM_Payroll</t>
+  </si>
+  <si>
+    <t>TestReportworksheetNo</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -339,57 +346,57 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -406,10 +413,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -444,7 +451,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,7 +503,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -601,7 +608,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -610,13 +617,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -626,7 +633,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -635,7 +642,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -644,7 +651,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -654,12 +661,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -690,7 +697,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -709,7 +716,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -721,7 +728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -730,10 +737,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -750,7 +757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="35.450000000000003" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -764,7 +771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -807,28 +814,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -857,7 +864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -1198,13 +1205,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1213,15 +1220,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="113.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="113.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1265,7 +1272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="12" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="2" s="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>65</v>
       </c>
@@ -1300,7 +1307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="3" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
@@ -1335,7 +1342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="4" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
@@ -1370,7 +1377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="5" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
@@ -1405,7 +1412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="6" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -1440,7 +1447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="7" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -1475,7 +1482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="8" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
@@ -1510,7 +1517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="9" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -1545,7 +1552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="10" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
@@ -1580,7 +1587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="11" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
@@ -1615,7 +1622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="12" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>65</v>
       </c>
@@ -1650,7 +1657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="13" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>65</v>
       </c>
@@ -1685,7 +1692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="14" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>65</v>
       </c>
@@ -1720,7 +1727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="15" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>65</v>
       </c>
@@ -1755,7 +1762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="16" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>65</v>
       </c>
@@ -1790,7 +1797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="17" s="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>65</v>
       </c>
@@ -1825,7 +1832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="13" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="18" s="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>65</v>
       </c>
@@ -1862,50 +1869,52 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A18" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B3" r:id="rId3" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B4" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B6" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B8" r:id="rId6" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B10" r:id="rId7" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B12" r:id="rId8" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B14" r:id="rId9" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B16" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B18" r:id="rId11" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B5" r:id="rId12" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B7" r:id="rId13" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B9" r:id="rId14" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B11" r:id="rId15" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B13" r:id="rId16" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B15" r:id="rId17" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B17" r:id="rId18" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A18"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId2" ref="B2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId3" ref="B3"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId4" ref="B4"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId5" ref="B6"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId6" ref="B8"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId7" ref="B10"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId8" ref="B12"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId9" ref="B14"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId10" ref="B16"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId11" ref="B18"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId12" ref="B5"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId13" ref="B7"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId14" ref="B9"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId15" ref="B11"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId16" ref="B13"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId17" ref="B15"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId18" ref="B17"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="60.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="60.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="16.5703125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1937,16 +1946,19 @@
         <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="33.6" r="2" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>65</v>
       </c>
@@ -1977,16 +1989,22 @@
       <c r="J2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId2" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="K2"/>
+  </ignoredErrors>
 </worksheet>
 </file>